--- a/Delivery_governance_data.xlsx
+++ b/Delivery_governance_data.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.sabat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6213DE9A-C7C9-44CB-9BF9-D78A7F96AD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FCFF7B-8629-4C7B-9503-C4C81ADFF748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="871" firstSheet="1" activeTab="6" xr2:uid="{DC9DB917-40C0-41F1-B94D-F7A8D7B53D47}"/>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{16A32D34-37D7-4591-AEEE-92628245A567}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="871" xr2:uid="{DC9DB917-40C0-41F1-B94D-F7A8D7B53D47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="888" activeTab="1" xr2:uid="{182F2B03-0B47-4230-A5D8-FBBDEC421974}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Escalation_Matrix" sheetId="8" r:id="rId6"/>
     <sheet name="Login_Credentials" sheetId="10" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Process_Task_Dictionary!$A$1:$L$56</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="543">
   <si>
     <t>Order_ID</t>
   </si>
@@ -139,12 +142,6 @@
     <t>Standard_TAT_Hours</t>
   </si>
   <si>
-    <t>Amber_Threshold_%</t>
-  </si>
-  <si>
-    <t>Red_Threshold_%</t>
-  </si>
-  <si>
     <t>Hold_Code</t>
   </si>
   <si>
@@ -592,48 +589,15 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Network Planning</t>
-  </si>
-  <si>
-    <t>Finance / PMO</t>
-  </si>
-  <si>
-    <t>PMO</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Field Ops</t>
-  </si>
-  <si>
     <t>NOC</t>
   </si>
   <si>
-    <t>SAP / OSS</t>
-  </si>
-  <si>
     <t>Supply Chain</t>
   </si>
   <si>
-    <t>Warehouse</t>
-  </si>
-  <si>
-    <t>OSS / NOC</t>
-  </si>
-  <si>
-    <t>Program Manager</t>
-  </si>
-  <si>
-    <t>NOC / Billing</t>
-  </si>
-  <si>
     <t>Last Mile Build – Wireless</t>
   </si>
   <si>
-    <t>Network Engineering</t>
-  </si>
-  <si>
     <t>Last Mile Build – Fiber</t>
   </si>
   <si>
@@ -694,9 +658,6 @@
     <t>Green</t>
   </si>
   <si>
-    <t>PMO_User_01</t>
-  </si>
-  <si>
     <t>HR02</t>
   </si>
   <si>
@@ -934,9 +895,6 @@
     <t>Derived from Orders_Master to indicate Wired or Wireless execution context</t>
   </si>
   <si>
-    <t>User, role, or team currently responsible for executing the task</t>
-  </si>
-  <si>
     <t>Execution status of the task (Completed, In Progress, TBD, In Risk)</t>
   </si>
   <si>
@@ -1027,33 +985,6 @@
     <t xml:space="preserve">Escalation_Matrix </t>
   </si>
   <si>
-    <t>FieldOps_03</t>
-  </si>
-  <si>
-    <t>NetEng_01</t>
-  </si>
-  <si>
-    <t>FieldOps_04</t>
-  </si>
-  <si>
-    <t>FieldOps_01</t>
-  </si>
-  <si>
-    <t>FieldOps_02</t>
-  </si>
-  <si>
-    <t>Warehouse_01</t>
-  </si>
-  <si>
-    <t>NOC_01</t>
-  </si>
-  <si>
-    <t>NOC_02</t>
-  </si>
-  <si>
-    <t>Billing_01</t>
-  </si>
-  <si>
     <t>Sheet Name</t>
   </si>
   <si>
@@ -1186,21 +1117,6 @@
     <t>POC_Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex </t>
-  </si>
-  <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>Cole</t>
-  </si>
-  <si>
-    <t>Dom</t>
-  </si>
-  <si>
-    <t>Eleanor</t>
-  </si>
-  <si>
     <t>Leader</t>
   </si>
   <si>
@@ -1393,21 +1309,12 @@
     <t>Paul.p</t>
   </si>
   <si>
-    <t>KAM_L2O</t>
-  </si>
-  <si>
-    <t>KAM_Onboarding</t>
-  </si>
-  <si>
     <t>CFM</t>
   </si>
   <si>
     <t>Field Engineer</t>
   </si>
   <si>
-    <t>Analyst</t>
-  </si>
-  <si>
     <t>Delivery Lead</t>
   </si>
   <si>
@@ -1742,6 +1649,54 @@
   </si>
   <si>
     <t>Indicates whether the login is active and allowed system access (Y/N). Input type: Y/N</t>
+  </si>
+  <si>
+    <t>KAM</t>
+  </si>
+  <si>
+    <t>Network Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Engineer  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFM </t>
+  </si>
+  <si>
+    <t>Assigned_To_Team</t>
+  </si>
+  <si>
+    <t>Assigned_To_POC</t>
+  </si>
+  <si>
+    <t>arjun.malhotra@telcotoday.com</t>
+  </si>
+  <si>
+    <t>manish.khanna@telcotoday.com</t>
+  </si>
+  <si>
+    <t>rahul.verma@telcotoday.com</t>
+  </si>
+  <si>
+    <t>vinod.sharma@telcotoday.com</t>
+  </si>
+  <si>
+    <t>ritu.arora@telcotoday.com</t>
+  </si>
+  <si>
+    <t>deepa.menon@telcotoday.com</t>
+  </si>
+  <si>
+    <t>ramesh.patil@telcotoday.com</t>
+  </si>
+  <si>
+    <t>sunita.roy@telcotoday.com</t>
+  </si>
+  <si>
+    <t>Team currently responsible for executing the task</t>
+  </si>
+  <si>
+    <t>Resource who is working on the order</t>
   </si>
 </sst>
 </file>
@@ -2233,12 +2188,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AD70CE-FA89-4154-B950-577B0C1A8F09}">
-  <dimension ref="B2:H79"/>
+  <dimension ref="B2:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A6" workbookViewId="1">
+      <selection activeCell="B12" sqref="B12:B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2261,124 +2218,124 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row r="11" spans="2:8" ht="45.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>6</v>
@@ -2389,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>7</v>
@@ -2400,7 +2357,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>8</v>
@@ -2411,7 +2368,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>9</v>
@@ -2422,7 +2379,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>10</v>
@@ -2433,7 +2390,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>11</v>
@@ -2444,7 +2401,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>12</v>
@@ -2452,10 +2409,10 @@
     </row>
     <row r="18" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>13</v>
@@ -2463,57 +2420,57 @@
     </row>
     <row r="19" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="12" t="s">
+      <c r="C22" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="C23" s="12" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C25" s="13"/>
     </row>
     <row r="26" spans="2:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -2521,39 +2478,39 @@
         <v>0</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
@@ -2561,23 +2518,23 @@
         <v>1</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
@@ -2585,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
@@ -2593,7 +2550,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
@@ -2601,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
@@ -2609,21 +2566,21 @@
         <v>5</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="13" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C40" s="13"/>
     </row>
     <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
@@ -2631,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
@@ -2639,7 +2596,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
@@ -2647,268 +2604,276 @@
         <v>1</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="6" t="s">
-        <v>32</v>
+        <v>532</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>289</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>290</v>
+        <v>541</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>294</v>
+        <v>31</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C54" s="13"/>
-    </row>
-    <row r="55" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>296</v>
+      <c r="C53" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="8" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>547</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="8" t="s">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>298</v>
+        <v>515</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="8" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C62" s="13"/>
-    </row>
-    <row r="63" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B64" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>301</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="6" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
-        <v>263</v>
+        <v>27</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="C69" s="13"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B71" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>550</v>
+      <c r="B70" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="8" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="8" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="8" t="s">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="8" t="s">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="8" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="8" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="8" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="8" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>558</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B70:C70"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2916,13 +2881,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF46EC9-BE9C-4FFD-8103-2FF76843AC89}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="1">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2932,16 +2899,15 @@
     <col min="4" max="4" width="22.26953125" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2955,2567 +2921,2122 @@
         <v>16</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>489</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F2" s="8">
         <v>4</v>
       </c>
-      <c r="G2" s="8">
-        <f>0.8*F2</f>
-        <v>3.2</v>
-      </c>
-      <c r="H2" s="8">
-        <f>1*F2</f>
-        <v>4</v>
+      <c r="G2" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="54" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F3" s="8">
         <v>4</v>
       </c>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:G56" si="0">0.8*F3</f>
-        <v>3.2</v>
-      </c>
-      <c r="H3" s="8">
-        <f t="shared" ref="H3:H56" si="1">1*F3</f>
-        <v>4</v>
+      <c r="G3" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="67.5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" s="8">
         <v>8</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="G4" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L4" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="54" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F5" s="8">
         <v>12</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="H5" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="G5" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="54" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F6" s="8">
         <v>24</v>
       </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
+      <c r="G6" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>176</v>
+        <v>459</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F7" s="8">
         <v>8</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="G7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>161</v>
+        <v>459</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>491</v>
+        <v>172</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F8" s="8">
         <v>24</v>
       </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H8" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
+      <c r="G8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>161</v>
+        <v>459</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>491</v>
+        <v>172</v>
       </c>
       <c r="L8" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F9" s="8">
         <v>4</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="H9" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>172</v>
+        <v>459</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L9" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" s="8">
         <v>4</v>
       </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>172</v>
+        <v>459</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L10" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F11" s="8">
         <v>12</v>
       </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="H11" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="G11" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>177</v>
+        <v>459</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L11" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F12" s="8">
         <v>4</v>
       </c>
-      <c r="G12" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G12" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>172</v>
+        <v>459</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L12" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F13" s="8">
         <v>4</v>
       </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="H13" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>172</v>
+        <v>459</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="54" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F14" s="8">
         <v>8</v>
       </c>
-      <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="G14" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="54" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F15" s="8">
         <v>12</v>
       </c>
-      <c r="G15" s="8">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="G15" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>177</v>
+        <v>459</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="54" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F16" s="8">
         <v>12</v>
       </c>
-      <c r="G16" s="8">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="G16" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>172</v>
+        <v>459</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L16" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="C17" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F17" s="8">
         <v>24</v>
       </c>
-      <c r="G17" s="8">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
+      <c r="G17" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>178</v>
+        <v>459</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L17" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="C18" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F18" s="8">
         <v>12</v>
       </c>
-      <c r="G18" s="8">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="G18" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L18" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="C19" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F19" s="8">
         <v>8</v>
       </c>
-      <c r="G19" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="G19" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L19" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="C20" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F20" s="8">
         <v>12</v>
       </c>
-      <c r="G20" s="8">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="G20" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>177</v>
+        <v>459</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L20" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="C21" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F21" s="8">
         <v>24</v>
       </c>
-      <c r="G21" s="8">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
+      <c r="G21" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>179</v>
+        <v>459</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L21" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="M21" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="C22" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F22" s="8">
         <v>12</v>
       </c>
-      <c r="G22" s="8">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="G22" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>188</v>
+        <v>459</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L22" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="C23" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F23" s="8">
         <v>12</v>
       </c>
-      <c r="G23" s="8">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="G23" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>188</v>
+        <v>459</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L23" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="M23" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="C24" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F24" s="8">
         <v>72</v>
       </c>
-      <c r="G24" s="8">
-        <f t="shared" si="0"/>
-        <v>57.6</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="1"/>
-        <v>72</v>
+      <c r="G24" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L24" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="54" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F25" s="8">
         <v>8</v>
       </c>
-      <c r="G25" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="G25" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L25" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="M25" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="C26" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F26" s="8">
         <v>8</v>
       </c>
-      <c r="G26" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="G26" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L26" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M26" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="C27" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F27" s="8">
         <v>8</v>
       </c>
-      <c r="G27" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="G27" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>177</v>
+        <v>459</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="54" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F28" s="8">
         <v>24</v>
       </c>
-      <c r="G28" s="8">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
+      <c r="G28" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L28" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="D29" s="8" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F29" s="8">
         <v>24</v>
       </c>
-      <c r="G29" s="8">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
+      <c r="G29" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L29" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="M29" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="C30" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F30" s="8">
         <v>24</v>
       </c>
-      <c r="G30" s="8">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
+      <c r="G30" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L30" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="M30" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="C31" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F31" s="8">
         <v>16</v>
       </c>
-      <c r="G31" s="8">
-        <f t="shared" si="0"/>
-        <v>12.8</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="1"/>
-        <v>16</v>
+      <c r="G31" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L31" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M31" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="C32" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F32" s="8">
         <v>12</v>
       </c>
-      <c r="G32" s="8">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="G32" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L32" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="M32" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="C33" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F33" s="8">
         <v>72</v>
       </c>
-      <c r="G33" s="8">
-        <f t="shared" si="0"/>
-        <v>57.6</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="1"/>
-        <v>72</v>
+      <c r="G33" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L33" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="M33" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="27" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="C34" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F34" s="8">
         <v>72</v>
       </c>
-      <c r="G34" s="8">
-        <f t="shared" si="0"/>
-        <v>57.6</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="1"/>
+      <c r="G34" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="D35" s="8" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F35" s="8">
         <v>48</v>
       </c>
-      <c r="G35" s="8">
-        <f t="shared" si="0"/>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="1"/>
-        <v>48</v>
+      <c r="G35" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L35" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="M35" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="C36" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F36" s="8">
         <v>8</v>
       </c>
-      <c r="G36" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="G36" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L36" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="M36" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="C37" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F37" s="8">
         <v>8</v>
       </c>
-      <c r="G37" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="G37" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L37" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="C38" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F38" s="8">
         <v>4</v>
       </c>
-      <c r="G38" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G38" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L38" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="C39" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F39" s="8">
         <v>2</v>
       </c>
-      <c r="G39" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="G39" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L39" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="M39" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="C40" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F40" s="8">
         <v>2</v>
       </c>
-      <c r="G40" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="G40" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>181</v>
+        <v>459</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L40" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="M40" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="27" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="C41" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F41" s="8">
         <v>4</v>
       </c>
-      <c r="G41" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G41" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>179</v>
+        <v>459</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L41" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="M41" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="C42" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F42" s="8">
         <v>12</v>
       </c>
-      <c r="G42" s="8">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="G42" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L42" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="M42" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="27" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="C43" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F43" s="8">
         <v>24</v>
       </c>
-      <c r="G43" s="8">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
+      <c r="G43" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L43" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="C44" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F44" s="8">
         <v>4</v>
       </c>
-      <c r="G44" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G44" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L44" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="M44" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="C45" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F45" s="8">
         <v>8</v>
       </c>
-      <c r="G45" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="H45" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="G45" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L45" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="M45" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="27" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="C46" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F46" s="8">
         <v>24</v>
       </c>
-      <c r="G46" s="8">
-        <f t="shared" si="0"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
+      <c r="G46" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L46" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="M46" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="C47" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F47" s="8">
         <v>4</v>
       </c>
-      <c r="G47" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="H47" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G47" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L47" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="M47" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="C48" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F48" s="8">
         <v>2</v>
       </c>
-      <c r="G48" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="G48" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L48" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="M48" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="C49" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F49" s="8">
         <v>4</v>
       </c>
-      <c r="G49" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G49" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L49" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="M49" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="C50" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F50" s="8">
         <v>2</v>
       </c>
-      <c r="G50" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="H50" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="G50" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>180</v>
+        <v>459</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L50" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="M50" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="C51" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F51" s="8">
         <v>2</v>
       </c>
-      <c r="G51" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="H51" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="G51" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>180</v>
+        <v>459</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L51" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M51" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="C52" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F52" s="8">
         <v>4</v>
       </c>
-      <c r="G52" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G52" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>179</v>
+        <v>459</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L52" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="M52" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="C53" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F53" s="8">
         <v>16</v>
       </c>
-      <c r="G53" s="8">
-        <f t="shared" si="0"/>
-        <v>12.8</v>
-      </c>
-      <c r="H53" s="8">
-        <f t="shared" si="1"/>
-        <v>16</v>
+      <c r="G53" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>180</v>
+        <v>459</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>491</v>
+        <v>172</v>
       </c>
       <c r="L53" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="M53" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="C54" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F54" s="8">
         <v>8</v>
       </c>
-      <c r="G54" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="H54" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="G54" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>185</v>
+        <v>459</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>491</v>
+        <v>172</v>
       </c>
       <c r="L54" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="M54" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="27" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="C55" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F55" s="8">
         <v>2</v>
       </c>
-      <c r="G55" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="H55" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="G55" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>180</v>
+        <v>459</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="L55" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="M55" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="F56" s="8">
         <v>4</v>
       </c>
-      <c r="G56" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="H56" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="G56" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>186</v>
+        <v>459</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>491</v>
+        <v>172</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L56" xr:uid="{5AF46EC9-BE9C-4FFD-8103-2FF76843AC89}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5526,7 +5047,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -5547,25 +5068,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>2</v>
@@ -5582,192 +5103,192 @@
     </row>
     <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I2" s="10">
         <v>45901</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I3" s="10">
         <v>45894</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I4" s="10">
         <v>45905</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I5" s="10">
         <v>45889</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I6" s="10">
         <v>45870</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5777,28 +5298,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BCD15F-577E-41F0-9DEA-52A5AB3F484E}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.6328125" customWidth="1"/>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="21.08984375" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="21.08984375" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5809,731 +5333,800 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>32</v>
+        <v>532</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.35">
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="10">
+        <v>45901</v>
+      </c>
+      <c r="H2" s="8">
+        <v>14</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="10">
+        <v>45902</v>
+      </c>
+      <c r="H3" s="8">
+        <v>28</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="10">
+        <v>45903</v>
+      </c>
+      <c r="H4" s="8">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="10">
+        <v>45904</v>
+      </c>
+      <c r="H5" s="8">
+        <v>14</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="10">
+        <v>45905</v>
+      </c>
+      <c r="H6" s="8">
+        <v>96</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="10">
+        <v>45894</v>
+      </c>
+      <c r="H7" s="8">
+        <v>8</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="10">
+        <v>45895</v>
+      </c>
+      <c r="H8" s="8">
+        <v>26</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="10">
+        <v>45896</v>
+      </c>
+      <c r="H9" s="8">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="10">
+        <v>45897</v>
+      </c>
+      <c r="H10" s="8">
+        <v>25</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="10">
+        <v>45899</v>
+      </c>
+      <c r="H11" s="8">
+        <v>18</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="10">
+        <v>45901</v>
+      </c>
+      <c r="H12" s="8">
+        <v>12</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="10">
+        <v>45902</v>
+      </c>
+      <c r="H13" s="8">
+        <v>78</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="10">
+        <v>45905</v>
+      </c>
+      <c r="H14" s="8">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="10">
+        <v>45906</v>
+      </c>
+      <c r="H15" s="8">
+        <v>8</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="10">
+        <v>45907</v>
+      </c>
+      <c r="H16" s="8">
+        <v>36</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="10">
+        <v>45889</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F2" s="10">
-        <v>45901</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="K17" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="10">
+        <v>45890</v>
+      </c>
+      <c r="H18" s="8">
+        <v>4</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="10">
+        <v>45891</v>
+      </c>
+      <c r="H19" s="8">
+        <v>20</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="10">
+        <v>45870</v>
+      </c>
+      <c r="H20" s="8">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="I20" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="10">
-        <v>45902</v>
-      </c>
-      <c r="G3" s="8">
-        <v>28</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="10">
-        <v>45903</v>
-      </c>
-      <c r="G4" s="8">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="10">
+        <v>45871</v>
+      </c>
+      <c r="H21" s="8">
+        <v>8</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="10">
-        <v>45904</v>
-      </c>
-      <c r="G5" s="8">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="K21" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="10">
-        <v>45905</v>
-      </c>
-      <c r="G6" s="8">
-        <v>96</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="10">
-        <v>45894</v>
-      </c>
-      <c r="G7" s="8">
-        <v>8</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="10">
-        <v>45895</v>
-      </c>
-      <c r="G8" s="8">
-        <v>26</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="10">
-        <v>45896</v>
-      </c>
-      <c r="G9" s="8">
-        <v>24</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="10">
-        <v>45897</v>
-      </c>
-      <c r="G10" s="8">
-        <v>25</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="10">
-        <v>45899</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="10">
-        <v>45901</v>
-      </c>
-      <c r="G12" s="8">
-        <v>12</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="10">
-        <v>45902</v>
-      </c>
-      <c r="G13" s="8">
-        <v>78</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" s="10">
-        <v>45905</v>
-      </c>
-      <c r="G14" s="8">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="10">
+        <v>45872</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="10">
+        <v>45873</v>
+      </c>
+      <c r="H23" s="8">
         <v>4</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="10">
-        <v>45906</v>
-      </c>
-      <c r="G15" s="8">
-        <v>8</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="10">
-        <v>45907</v>
-      </c>
-      <c r="G16" s="8">
-        <v>36</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F17" s="10">
-        <v>45889</v>
-      </c>
-      <c r="G17" s="8">
-        <v>2</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F18" s="10">
-        <v>45890</v>
-      </c>
-      <c r="G18" s="8">
-        <v>4</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" s="10">
-        <v>45891</v>
-      </c>
-      <c r="G19" s="8">
-        <v>20</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F20" s="10">
-        <v>45870</v>
-      </c>
-      <c r="G20" s="8">
-        <v>14</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="10">
-        <v>45871</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F22" s="10">
-        <v>45872</v>
-      </c>
-      <c r="G22" s="8">
-        <v>2</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="10">
-        <v>45873</v>
-      </c>
-      <c r="G23" s="8">
-        <v>4</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="I23" s="8" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>200</v>
+        <v>187</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6560,7 +6153,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>20</v>
@@ -6569,588 +6162,588 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -7183,298 +6776,298 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8">
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="8">
         <v>24</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="8">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="8">
         <v>24</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="8">
         <v>24</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="8">
         <v>48</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B8" s="8">
         <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B9" s="8">
         <v>72</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B10" s="8">
         <v>72</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B11" s="8">
         <v>120</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B12" s="8">
         <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="8">
         <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -7515,8 +7108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2E0E3F-70F9-45C9-939D-A1124EA0CBFA}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -7534,36 +7127,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B2" s="8" t="str" cm="1">
         <f t="array" ref="B2">LOWER(TRIM(E2) &amp; "@" &amp; INDEX(_xlfn.TEXTSPLIT(H2, " "), 1) &amp; "." &amp; LEFT(A2) &amp; MID(A2, 5, LEN(A2) - 6))</f>
@@ -7574,27 +7167,27 @@
         <v>walter.white@123</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B3" s="8" t="str" cm="1">
         <f t="array" ref="B3">LOWER(TRIM(E3) &amp; "@" &amp; INDEX(_xlfn.TEXTSPLIT(H3, " "), 1) &amp; "." &amp; LEFT(A3) &amp; MID(A3, 5, LEN(A3) - 6))</f>
@@ -7605,27 +7198,27 @@
         <v>jessie.pinkman@223</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B4" s="8" t="str" cm="1">
         <f t="array" ref="B4">LOWER(TRIM(E4) &amp; "@" &amp; INDEX(_xlfn.TEXTSPLIT(H4, " "), 1) &amp; "." &amp; LEFT(A4) &amp; MID(A4, 5, LEN(A4) - 6))</f>
@@ -7636,27 +7229,27 @@
         <v>saul.goodman@323</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B5" s="8" t="str" cm="1">
         <f t="array" ref="B5">LOWER(TRIM(E5) &amp; "@" &amp; INDEX(_xlfn.TEXTSPLIT(H5, " "), 1) &amp; "." &amp; LEFT(A5) &amp; MID(A5, 5, LEN(A5) - 6))</f>
@@ -7667,27 +7260,27 @@
         <v>hank.schrader@423</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B6" s="8" t="str" cm="1">
         <f t="array" ref="B6">LOWER(TRIM(E6) &amp; "@" &amp; INDEX(_xlfn.TEXTSPLIT(H6, " "), 1) &amp; "." &amp; LEFT(A6) &amp; MID(A6, 5, LEN(A6) - 6))</f>
@@ -7698,27 +7291,27 @@
         <v>gus.fring@523</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>LOWER(TRIM(E7)&amp;"@"&amp;"telcotoday.com")</f>
@@ -7729,27 +7322,27 @@
         <v>sam.jackson@623</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" ref="B8:B34" si="1">LOWER(TRIM(E8)&amp;"@"&amp;"telcotoday.com")</f>
@@ -7760,27 +7353,27 @@
         <v>steve.har@723</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7791,28 +7384,28 @@
         <v>rohan.gupta@823</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>442</v>
+        <v>527</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>E8</f>
         <v>Steve.har</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7823,28 +7416,28 @@
         <v>anjali.mehra@923</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>442</v>
+        <v>527</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>E9</f>
         <v>Rohan.Gupta</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7855,27 +7448,27 @@
         <v>dustin.hen@1023</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7886,28 +7479,28 @@
         <v>sneha.iyer@1123</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>443</v>
+        <v>170</v>
       </c>
       <c r="G12" s="8" t="str">
         <f>E11</f>
         <v>Dustin.hen</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7918,28 +7511,28 @@
         <v>mohit.jain@1223</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>443</v>
+        <v>170</v>
       </c>
       <c r="G13" s="8" t="str">
         <f>E12</f>
         <v>Sneha.Iyer</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7950,27 +7543,27 @@
         <v>lucas.sin@1323</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7981,28 +7574,28 @@
         <v>karthik.rao@1423</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="G15" s="8" t="str">
         <f>E14</f>
         <v>Lucas.sin</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8013,28 +7606,28 @@
         <v>neelam.singh@1523</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>447</v>
       </c>
       <c r="G16" s="8" t="str">
         <f>E15</f>
         <v>Karthik.Rao</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8045,27 +7638,27 @@
         <v>max.mad@1623</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8076,28 +7669,28 @@
         <v>arjun.malhotra@1723</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>446</v>
+        <v>528</v>
       </c>
       <c r="G18" s="8" t="str">
         <f>E17</f>
         <v>Max.mad</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8108,28 +7701,28 @@
         <v>priti.kulkarni@1823</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>446</v>
+        <v>528</v>
       </c>
       <c r="G19" s="8" t="str">
         <f t="shared" ref="G19:G21" si="2">E18</f>
         <v>Arjun.Malhotra</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8140,28 +7733,28 @@
         <v>suresh.nair@1923</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="G20" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Priti.Kulkarni</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8172,28 +7765,28 @@
         <v>deepa.menon@2023</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="G21" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Suresh.Nair</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8204,27 +7797,27 @@
         <v>will.kol@2123</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B23" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8235,28 +7828,28 @@
         <v>rahul.verma@2223</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>446</v>
+        <v>528</v>
       </c>
       <c r="G23" s="8" t="str">
         <f>E22</f>
         <v>Will.kol</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B24" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8267,28 +7860,28 @@
         <v>nisha.kapoor@2323</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>446</v>
+        <v>528</v>
       </c>
       <c r="G24" s="8" t="str">
         <f t="shared" ref="G24:G26" si="3">E23</f>
         <v>Rahul.Verma</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B25" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8299,28 +7892,28 @@
         <v>vinod.sharma@2423</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="G25" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Nisha.Kapoor</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B26" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8331,28 +7924,28 @@
         <v>kavita.desai@2523</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="G26" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Vinod.Sharma</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B27" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8363,27 +7956,27 @@
         <v>mike.dor@2623</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B28" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8394,28 +7987,28 @@
         <v>ramesh.patil@2723</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>445</v>
+        <v>173</v>
       </c>
       <c r="G28" s="8" t="str">
         <f>E27</f>
         <v>Mike.dor</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B29" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8426,28 +8019,28 @@
         <v>sunita.roy@2823</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>445</v>
+        <v>173</v>
       </c>
       <c r="G29" s="8" t="str">
         <f t="shared" ref="G29:G31" si="4">E28</f>
         <v>Ramesh.Patil</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B30" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8458,28 +8051,28 @@
         <v>manish.khanna@2923</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="G30" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Sunita.Roy</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B31" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8490,28 +8083,28 @@
         <v>ritu.arora@3023</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="G31" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Manish.Khanna</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="B32" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8522,28 +8115,28 @@
         <v>jason.y@3123</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="G32" s="8" t="str">
         <f>E7</f>
         <v>Sam.jackson</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="B33" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8554,28 +8147,28 @@
         <v>simon.c@3223</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="G33" s="8" t="str">
         <f t="shared" ref="G33:G34" si="5">E8</f>
         <v>Steve.har</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="B34" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8586,23 +8179,23 @@
         <v>paul.p@3323</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="G34" s="8" t="str">
         <f t="shared" si="5"/>
         <v>Rohan.Gupta</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">

--- a/Delivery_governance_data.xlsx
+++ b/Delivery_governance_data.xlsx
@@ -5,13 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.sabat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.sabat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FCFF7B-8629-4C7B-9503-C4C81ADFF748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB68B32-9133-408F-9AF7-213330351AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="871" xr2:uid="{DC9DB917-40C0-41F1-B94D-F7A8D7B53D47}"/>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="888" activeTab="1" xr2:uid="{182F2B03-0B47-4230-A5D8-FBBDEC421974}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="888" activeTab="6" xr2:uid="{182F2B03-0B47-4230-A5D8-FBBDEC421974}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -23,6 +22,7 @@
     <sheet name="Login_Credentials" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Login_Credentials!$A$1:$I$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Process_Task_Dictionary!$A$1:$L$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="544">
   <si>
     <t>Order_ID</t>
   </si>
@@ -1697,6 +1697,9 @@
   </si>
   <si>
     <t>Resource who is working on the order</t>
+  </si>
+  <si>
+    <t>PMO</t>
   </si>
 </sst>
 </file>
@@ -2190,10 +2193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AD70CE-FA89-4154-B950-577B0C1A8F09}">
   <dimension ref="B2:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-    <sheetView topLeftCell="A6" workbookViewId="1">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:B23"/>
     </sheetView>
   </sheetViews>
@@ -2883,12 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF46EC9-BE9C-4FFD-8103-2FF76843AC89}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="1">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5046,10 +5042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CA04D2-1F7F-4FF5-AE83-ADE9AB8CFE63}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5301,10 +5294,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6138,10 +6128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACB2990-F514-47B4-8FBF-5423D7FA4CC6}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6755,10 +6742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435F682F-D3C8-4835-A2B7-E5A34E7587DC}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7106,12 +7090,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2E0E3F-70F9-45C9-939D-A1124EA0CBFA}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7163,7 +7146,7 @@
         <v>walter.white@abc.com</v>
       </c>
       <c r="C2" s="8" t="str">
-        <f t="shared" ref="C2:C34" si="0">LOWER(TRIM(E2) &amp; "@" &amp; TEXT(100 * (ROW() - ROW($C$2)) + 123, "0;-0"))</f>
+        <f t="shared" ref="C2:C33" si="0">LOWER(TRIM(E2) &amp; "@" &amp; TEXT(100 * (ROW() - ROW($C$2)) + 123, "0;-0"))</f>
         <v>walter.white@123</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -7342,10 +7325,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B8" s="8" t="str">
-        <f t="shared" ref="B8:B34" si="1">LOWER(TRIM(E8)&amp;"@"&amp;"telcotoday.com")</f>
+        <f t="shared" ref="B8:B33" si="1">LOWER(TRIM(E8)&amp;"@"&amp;"telcotoday.com")</f>
         <v>steve.har@telcotoday.com</v>
       </c>
       <c r="C8" s="8" t="str">
@@ -7362,7 +7345,7 @@
         <v>373</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>363</v>
@@ -7392,9 +7375,8 @@
       <c r="F9" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="G9" s="8" t="str">
-        <f>E8</f>
-        <v>Steve.har</v>
+      <c r="G9" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>363</v>
@@ -7424,9 +7406,8 @@
       <c r="F10" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="G10" s="8" t="str">
-        <f>E9</f>
-        <v>Rohan.Gupta</v>
+      <c r="G10" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>363</v>
@@ -7437,7 +7418,7 @@
     </row>
     <row r="11" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7457,7 +7438,7 @@
         <v>374</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>355</v>
@@ -7487,9 +7468,8 @@
       <c r="F12" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G12" s="8" t="str">
-        <f>E11</f>
-        <v>Dustin.hen</v>
+      <c r="G12" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>364</v>
@@ -7519,9 +7499,8 @@
       <c r="F13" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="8" t="str">
-        <f>E12</f>
-        <v>Sneha.Iyer</v>
+      <c r="G13" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>364</v>
@@ -7532,7 +7511,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7552,7 +7531,7 @@
         <v>375</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>356</v>
@@ -7582,9 +7561,8 @@
       <c r="F15" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="G15" s="8" t="str">
-        <f>E14</f>
-        <v>Lucas.sin</v>
+      <c r="G15" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>365</v>
@@ -7614,9 +7592,8 @@
       <c r="F16" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="G16" s="8" t="str">
-        <f>E15</f>
-        <v>Karthik.Rao</v>
+      <c r="G16" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>365</v>
@@ -7627,7 +7604,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7647,7 +7624,7 @@
         <v>376</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>357</v>
@@ -7677,9 +7654,8 @@
       <c r="F18" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="G18" s="8" t="str">
-        <f>E17</f>
-        <v>Max.mad</v>
+      <c r="G18" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>366</v>
@@ -7709,9 +7685,8 @@
       <c r="F19" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="G19" s="8" t="str">
-        <f t="shared" ref="G19:G21" si="2">E18</f>
-        <v>Arjun.Malhotra</v>
+      <c r="G19" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>366</v>
@@ -7741,9 +7716,8 @@
       <c r="F20" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="G20" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Priti.Kulkarni</v>
+      <c r="G20" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>367</v>
@@ -7773,9 +7747,8 @@
       <c r="F21" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="G21" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Suresh.Nair</v>
+      <c r="G21" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>367</v>
@@ -7786,7 +7759,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7806,7 +7779,7 @@
         <v>377</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>358</v>
@@ -7836,9 +7809,8 @@
       <c r="F23" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="G23" s="8" t="str">
-        <f>E22</f>
-        <v>Will.kol</v>
+      <c r="G23" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>368</v>
@@ -7868,9 +7840,8 @@
       <c r="F24" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="G24" s="8" t="str">
-        <f t="shared" ref="G24:G26" si="3">E23</f>
-        <v>Rahul.Verma</v>
+      <c r="G24" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>368</v>
@@ -7900,9 +7871,8 @@
       <c r="F25" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="G25" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Nisha.Kapoor</v>
+      <c r="G25" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>369</v>
@@ -7932,9 +7902,8 @@
       <c r="F26" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="G26" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Vinod.Sharma</v>
+      <c r="G26" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>369</v>
@@ -7945,7 +7914,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B27" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7965,7 +7934,7 @@
         <v>378</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>359</v>
@@ -7995,9 +7964,8 @@
       <c r="F28" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G28" s="8" t="str">
-        <f>E27</f>
-        <v>Mike.dor</v>
+      <c r="G28" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>370</v>
@@ -8027,9 +7995,8 @@
       <c r="F29" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G29" s="8" t="str">
-        <f t="shared" ref="G29:G31" si="4">E28</f>
-        <v>Ramesh.Patil</v>
+      <c r="G29" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>370</v>
@@ -8059,9 +8026,8 @@
       <c r="F30" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="G30" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>Sunita.Roy</v>
+      <c r="G30" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>372</v>
@@ -8091,9 +8057,8 @@
       <c r="F31" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="G31" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>Manish.Khanna</v>
+      <c r="G31" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>372</v>
@@ -8104,7 +8069,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B32" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8121,11 +8086,10 @@
         <v>410</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="G32" s="8" t="str">
-        <f>E7</f>
-        <v>Sam.jackson</v>
+        <v>543</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>360</v>
@@ -8136,7 +8100,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B33" s="8" t="str">
         <f t="shared" si="1"/>
@@ -8153,11 +8117,10 @@
         <v>411</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="G33" s="8" t="str">
-        <f t="shared" ref="G33:G34" si="5">E8</f>
-        <v>Steve.har</v>
+        <v>543</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>361</v>
@@ -8167,45 +8130,16 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>paul.p@telcotoday.com</v>
-      </c>
-      <c r="C34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>paul.p@3323</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="G34" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>Rohan.Gupta</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>172</v>
-      </c>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J36" s="8"/>
@@ -8246,16 +8180,14 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I51" s="8"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:I33" xr:uid="{EE2E0E3F-70F9-45C9-939D-A1124EA0CBFA}"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="alex@123" xr:uid="{16C52D5C-F4D9-4351-860C-DE5D714A85F2}"/>
     <hyperlink ref="C3" r:id="rId2" display="barbara@223" xr:uid="{AA8ACED0-5ADC-42B4-A044-0C377D91B862}"/>
@@ -8263,7 +8195,7 @@
     <hyperlink ref="B2" r:id="rId4" display="alex@abc.com" xr:uid="{66C78CA4-ED93-42C6-9125-A019B992D29C}"/>
     <hyperlink ref="B3" r:id="rId5" display="barbara@xyz.com" xr:uid="{5073C2F4-6342-4DD2-9D96-5541F8EED054}"/>
     <hyperlink ref="C8" r:id="rId6" display="steve@823" xr:uid="{FC344FB0-4621-4CE5-92AF-EDFD874DFC2E}"/>
-    <hyperlink ref="C9:C34" r:id="rId7" display="steve@823" xr:uid="{915517D2-2A0D-4DA8-A21C-D9F9D6E66726}"/>
+    <hyperlink ref="C9:C33" r:id="rId7" display="steve@823" xr:uid="{915517D2-2A0D-4DA8-A21C-D9F9D6E66726}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
